--- a/trained_models_old_clean/MLP/dermatology/results_table.xlsx
+++ b/trained_models_old_clean/MLP/dermatology/results_table.xlsx
@@ -504,11 +504,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.40608697736016275, 'beta_2': 0.9526096625874722, 'epsilon': 0.08420386789004532, 'learning_rate': 'adaptive', 'momentum': 0.1853129195793668, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.5199849899533098}</t>
+          <t>{'beta_1': 0.04322740576575398, 'beta_2': 0.7999597479776487, 'epsilon': 0.37705275503017843, 'learning_rate': 'constant', 'momentum': 0.47166406620494905, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.7243309792357789}</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.7685185185185185</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="3">
@@ -540,7 +540,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.9709730574971661, 'beta_2': 0.8773152778758297, 'epsilon': 0.5091147523431803, 'learning_rate': 'constant', 'momentum': 0.604845519745046, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.44171092124884537}</t>
+          <t>{'beta_1': 0.14454644832421407, 'beta_2': 0.16787447884661194, 'epsilon': 0.06437100980051019, 'learning_rate': 'invscaling', 'momentum': 0.20825325212148382, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.2153982043432382}</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -576,11 +576,11 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.8296426288894153, 'beta_2': 0.07166958492821525, 'epsilon': 0.8527711995999567, 'learning_rate': 'constant', 'momentum': 0.45489035346577167, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.648998663262847}</t>
+          <t>{'beta_1': 0.06389131085486015, 'beta_2': 0.4851419683386883, 'epsilon': 0.9765176446047024, 'learning_rate': 'constant', 'momentum': 0.33815895183684563, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.2317016264712045}</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.9537037037037037</v>
+        <v>0.9074074074074074</v>
       </c>
     </row>
     <row r="5">
@@ -612,11 +612,11 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.13466016890707608, 'beta_2': 0.8488231537821458, 'epsilon': 0.35068366467308065, 'learning_rate': 'invscaling', 'momentum': 0.004703256227400421, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.09366070118905723}</t>
+          <t>{'beta_1': 0.15351287622984, 'beta_2': 0.44404922963498833, 'epsilon': 0.49460123084919705, 'learning_rate': 'constant', 'momentum': 0.581856616157203, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.5713805768779951}</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.9259259259259259</v>
+        <v>0.9814814814814815</v>
       </c>
     </row>
     <row r="6">
@@ -648,11 +648,11 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.5271870108472929, 'beta_2': 0.23728561484836336, 'epsilon': 0.27103479515720774, 'learning_rate': 'invscaling', 'momentum': 0.5323203282585608, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.5171213804274264}</t>
+          <t>{'beta_1': 0.900106903707655, 'beta_2': 0.009365802526148359, 'epsilon': 0.10228756130139185, 'learning_rate': 'adaptive', 'momentum': 0.5024530743128972, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.898110969165408}</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.6574074074074074</v>
+        <v>0.9259259259259259</v>
       </c>
     </row>
     <row r="7">
@@ -684,11 +684,11 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.27808502966658566, 'beta_2': 0.28966269009651957, 'epsilon': 0.006054472911401071, 'learning_rate': 'constant', 'momentum': 0.8459838734615371, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.5871565138465034}</t>
+          <t>{'beta_1': 0.44874854048015367, 'beta_2': 0.9775923574922963, 'epsilon': 0.11608570770278201, 'learning_rate': 'adaptive', 'momentum': 0.8137978197024772, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.24979627565497808}</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.9629629629629629</v>
+        <v>0.9259259259259259</v>
       </c>
     </row>
     <row r="8">
@@ -720,11 +720,11 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.4681107689374008, 'beta_2': 0.21364682348509959, 'epsilon': 0.8885808137686589, 'learning_rate': 'adaptive', 'momentum': 0.8560349969338062, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.2018381334111935}</t>
+          <t>{'beta_1': 0.7770054833501733, 'beta_2': 0.07101681272948948, 'epsilon': 0.3420641590354221, 'learning_rate': 'adaptive', 'momentum': 0.12503687251526652, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.8965321885275243}</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.9444444444444444</v>
+        <v>0.9629629629629629</v>
       </c>
     </row>
     <row r="9">
@@ -756,11 +756,11 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.4142472780505331, 'beta_2': 0.2642910564925223, 'epsilon': 0.7734594557447825, 'learning_rate': 'constant', 'momentum': 0.5684339488686485, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.6176354970758771}</t>
+          <t>{'beta_1': 0.75606418862158, 'beta_2': 0.31684939052321165, 'epsilon': 0.014631245255897577, 'learning_rate': 'constant', 'momentum': 0.6986299508481587, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.025737775583115297}</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.9259259259259259</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="10">
@@ -792,11 +792,11 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.6520504287434347, 'beta_2': 0.939530597109095, 'epsilon': 0.271314566053248, 'learning_rate': 'invscaling', 'momentum': 0.8603830798416068, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.5541987569863228}</t>
+          <t>{'beta_1': 0.9625065247504405, 'beta_2': 0.3046592187747645, 'epsilon': 0.9404978523922592, 'learning_rate': 'adaptive', 'momentum': 0.7513464276552426, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.19744130972614415}</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8148148148148148</v>
       </c>
     </row>
     <row r="11">
@@ -828,11 +828,11 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.013934447537481931, 'beta_2': 0.532932216069178, 'epsilon': 0.3042774486452318, 'learning_rate': 'constant', 'momentum': 0.07952208258675575, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.6720478073539145}</t>
+          <t>{'beta_1': 0.034075793806106, 'beta_2': 0.6638365496169778, 'epsilon': 0.8668194881681545, 'learning_rate': 'constant', 'momentum': 0.8757651744100993, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.08029435501699689}</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.9351851851851852</v>
+        <v>0.9537037037037037</v>
       </c>
     </row>
     <row r="12">
@@ -864,11 +864,11 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.34451173003612534, 'beta_2': 0.10100638307292784, 'epsilon': 0.31806055772951036, 'learning_rate': 'invscaling', 'momentum': 0.8112588995548236, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.9016504359672537}</t>
+          <t>{'beta_1': 0.8001098412276646, 'beta_2': 0.5199570020716536, 'epsilon': 0.6782006505888414, 'learning_rate': 'constant', 'momentum': 0.5820197920751071, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.5218483217500717}</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.9074074074074074</v>
+        <v>0.9629629629629629</v>
       </c>
     </row>
     <row r="13">
@@ -900,11 +900,11 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.5325626364884489, 'beta_2': 0.2964159009195633, 'epsilon': 0.4814323469938282, 'learning_rate': 'constant', 'momentum': 0.3759624313127088, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.14596480901134845}</t>
+          <t>{'beta_1': 0.4576806884327828, 'beta_2': 0.5903931811583613, 'epsilon': 0.856864921549361, 'learning_rate': 'adaptive', 'momentum': 0.09746868872548986, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.820767120701315}</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.9074074074074074</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="14">
@@ -936,11 +936,11 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.9709730574971661, 'beta_2': 0.8773152778758297, 'epsilon': 0.5091147523431803, 'learning_rate': 'constant', 'momentum': 0.604845519745046, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.44171092124884537}</t>
+          <t>{'beta_1': 0.11370282374947131, 'beta_2': 0.6304944160294864, 'epsilon': 0.13268218376992516, 'learning_rate': 'constant', 'momentum': 0.3742961833209161, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.23780724253903884}</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.9537037037037037</v>
+        <v>0.6388888888888888</v>
       </c>
     </row>
     <row r="15">
@@ -972,11 +972,11 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.9625065247504405, 'beta_2': 0.3046592187747645, 'epsilon': 0.9404978523922592, 'learning_rate': 'adaptive', 'momentum': 0.7513464276552426, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.19744130972614415}</t>
+          <t>{'beta_1': 0.48992948852783885, 'beta_2': 0.18516323839240345, 'epsilon': 0.9948194776666753, 'learning_rate': 'adaptive', 'momentum': 0.4714573193542654, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.6444791031250725}</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.9537037037037037</v>
+        <v>0.9074074074074074</v>
       </c>
     </row>
     <row r="16">
@@ -1008,11 +1008,11 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.7723104705008167, 'beta_2': 0.9577821821335364, 'epsilon': 0.11720315990442622, 'learning_rate': 'invscaling', 'momentum': 0.9364681001409744, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.05250816744440845}</t>
+          <t>{'beta_1': 0.052354629733086175, 'beta_2': 0.9092212557463333, 'epsilon': 0.5338975961371942, 'learning_rate': 'constant', 'momentum': 0.6800837840490205, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.25748830652559607}</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.7314814814814815</v>
+        <v>0.9629629629629629</v>
       </c>
     </row>
     <row r="17">
@@ -1044,11 +1044,11 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.6869017041950402, 'beta_2': 0.04257331712662113, 'epsilon': 0.5486880218735323, 'learning_rate': 'adaptive', 'momentum': 0.396222744661744, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.22082428411043153}</t>
+          <t>{'beta_1': 0.17632288950017108, 'beta_2': 0.938221748178283, 'epsilon': 0.5058059117993652, 'learning_rate': 'invscaling', 'momentum': 0.4671194071688368, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.30417355738924656}</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.8796296296296297</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="18">
@@ -1080,11 +1080,11 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.11644205381716893, 'beta_2': 0.3572813958133706, 'epsilon': 0.004650182000346301, 'learning_rate': 'invscaling', 'momentum': 0.3881690830118073, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.3564398889443938}</t>
+          <t>{'beta_1': 0.4601361519058461, 'beta_2': 0.9657710060996425, 'epsilon': 0.5341734662421768, 'learning_rate': 'adaptive', 'momentum': 0.6197720842759777, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.09884595187690437}</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.9444444444444444</v>
+        <v>0.9537037037037037</v>
       </c>
     </row>
     <row r="19">
@@ -1116,11 +1116,11 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.13466016890707608, 'beta_2': 0.8488231537821458, 'epsilon': 0.35068366467308065, 'learning_rate': 'invscaling', 'momentum': 0.004703256227400421, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.09366070118905723}</t>
+          <t>{'beta_1': 0.6917796472506498, 'beta_2': 0.5660348527523685, 'epsilon': 0.26512410144850596, 'learning_rate': 'adaptive', 'momentum': 0.09394051075844168, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.9292961975762141}</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.9259259259259259</v>
+        <v>0.8703703703703703</v>
       </c>
     </row>
     <row r="20">
@@ -1152,11 +1152,11 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.6508527181139733, 'beta_2': 0.38159210878680017, 'epsilon': 0.33820372777845686, 'learning_rate': 'invscaling', 'momentum': 0.6141750023638414, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.1992281464241792}</t>
+          <t>{'beta_1': 0.28254252745470015, 'beta_2': 0.6953619013990796, 'epsilon': 0.19861124423877946, 'learning_rate': 'invscaling', 'momentum': 0.08688567080227105, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.23989203008963}</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.9444444444444444</v>
+        <v>0.9629629629629629</v>
       </c>
     </row>
     <row r="21">
@@ -1190,11 +1190,11 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.38601463978525796, 'beta_2': 0.2891210581598599, 'epsilon': 0.1490866112283353, 'learning_rate': 'adaptive', 'momentum': 0.44286429476318045, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9107117463268657}</t>
+          <t>{'beta_1': 0.6784115250117865, 'beta_2': 0.8634171612435584, 'epsilon': 0.7500934013828031, 'learning_rate': 'invscaling', 'momentum': 0.31194499547960186, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.20984374897512215}</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8981481481481481</v>
       </c>
     </row>
   </sheetData>
